--- a/other/xinhu/medals.xlsx
+++ b/other/xinhu/medals.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF0742D-AEB4-471D-A961-A99CD40C20F3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1A5B2C-EF99-48B6-9349-526CFA8E09A6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="357">
   <si>
     <t>類別</t>
   </si>
@@ -1383,15 +1383,61 @@
   </si>
   <si>
     <t>優勝</t>
+  </si>
+  <si>
+    <t>體育類</t>
+  </si>
+  <si>
+    <t>臺北市106學年度國小樂樂棒球錦標賽 六年級擊球座組</t>
+  </si>
+  <si>
+    <t>亞軍</t>
+  </si>
+  <si>
+    <t>台北市政府教育局</t>
+  </si>
+  <si>
+    <t>民俗體育類</t>
+  </si>
+  <si>
+    <t>台北市106學年度教育盃中小學民俗體育運動錦標賽 扯鈴 乙類 國小團體賽</t>
+  </si>
+  <si>
+    <t>特優</t>
+  </si>
+  <si>
+    <t>台北市107年青年盃民俗體育運動錦標賽 扯鈴 乙類 國小團體賽</t>
+  </si>
+  <si>
+    <t>台北市體育總會民俗體育運動協會</t>
+  </si>
+  <si>
+    <t>台北市106學年度國民小學運動會 女生組 田徑總錦標</t>
+  </si>
+  <si>
+    <t>第九名</t>
+  </si>
+  <si>
+    <t>台北市106學年度國小教育盃排球錦標賽 女教師 乙組</t>
+  </si>
+  <si>
+    <t>殿軍</t>
+  </si>
+  <si>
+    <t>台北市106學年度國民小學 教育盃 桌球錦標賽 男教職員組</t>
+  </si>
+  <si>
+    <t>第八名</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="000"/>
-    <numFmt numFmtId="170" formatCode="[$-404]e/m/d;@"/>
+    <numFmt numFmtId="165" formatCode="[$-404]e/m/d;@"/>
+    <numFmt numFmtId="166" formatCode="[$-404]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -1436,7 +1482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1465,11 +1511,14 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1536,28 +1585,7 @@
         <charset val="136"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="[$-404]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="[$-404]e/m/d;@"/>
+      <numFmt numFmtId="166" formatCode="[$-404]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1638,26 +1666,7 @@
         <charset val="136"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="165" formatCode="[$-404]e/m/d;@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1701,6 +1710,46 @@
       <numFmt numFmtId="164" formatCode="000"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1715,15 +1764,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CECC76F-F22D-4F6A-9012-454A84F9C2E9}" name="Table1" displayName="Table1" ref="A1:I213" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
-  <autoFilter ref="A1:I213" xr:uid="{4B009636-BF29-4C92-9262-E987A45F372C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CECC76F-F22D-4F6A-9012-454A84F9C2E9}" name="Table1" displayName="Table1" ref="A1:I219" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I219" xr:uid="{4B009636-BF29-4C92-9262-E987A45F372C}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E691D5B0-A58D-4A62-AEA9-CC8D93BE57C3}" name="序號" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{52AC93A6-EA7E-4D3F-AABC-8B0C4F17C203}" name="類別" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{567EAB9C-8263-4361-9F54-58A9C3E18B09}" name="得獎時間" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{FFB8BAD0-65D9-4CA4-914C-D5E63D4991CB}" name="獎項名稱" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{DB596808-3087-46CC-BA0C-85290EE37958}" name="名次" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{939F7096-7431-41F1-8D49-EA3A06F66C47}" name="頒獎單位" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{E691D5B0-A58D-4A62-AEA9-CC8D93BE57C3}" name="序號" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{52AC93A6-EA7E-4D3F-AABC-8B0C4F17C203}" name="類別" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{567EAB9C-8263-4361-9F54-58A9C3E18B09}" name="得獎時間" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{FFB8BAD0-65D9-4CA4-914C-D5E63D4991CB}" name="獎項名稱" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{DB596808-3087-46CC-BA0C-85290EE37958}" name="名次" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{939F7096-7431-41F1-8D49-EA3A06F66C47}" name="頒獎單位" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{68599851-7B80-4CBA-9677-2A85DA8DE0CE}" name="year" dataDxfId="2">
       <calculatedColumnFormula>YEAR(C2)</calculatedColumnFormula>
     </tableColumn>
@@ -2001,10 +2050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I218"/>
+  <dimension ref="A1:I222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="I219" sqref="I219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
@@ -8113,15 +8162,15 @@
         <v>232</v>
       </c>
       <c r="G194" s="8">
-        <f t="shared" ref="G194:G213" si="10">YEAR(C194)</f>
+        <f t="shared" ref="G194:G214" si="10">YEAR(C194)</f>
         <v>1996</v>
       </c>
       <c r="H194" s="8">
-        <f t="shared" ref="H194:H213" si="11">MONTH(C194)</f>
+        <f t="shared" ref="H194:H214" si="11">MONTH(C194)</f>
         <v>5</v>
       </c>
       <c r="I194" s="8">
-        <f t="shared" ref="I194:I213" si="12">DAY(C194)</f>
+        <f t="shared" ref="I194:I214" si="12">DAY(C194)</f>
         <v>7</v>
       </c>
     </row>
@@ -8733,50 +8782,230 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
-      <c r="A214" s="6"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="10"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="8"/>
-    </row>
-    <row r="215" spans="1:9">
-      <c r="A215" s="6"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="10"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
-      <c r="G215" s="8"/>
-    </row>
-    <row r="216" spans="1:9">
-      <c r="A216" s="6"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="10"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
-      <c r="G216" s="8"/>
-    </row>
-    <row r="217" spans="1:9">
-      <c r="A217" s="6"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="10"/>
-      <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
-      <c r="F217" s="3"/>
-      <c r="G217" s="8"/>
-    </row>
-    <row r="218" spans="1:9">
-      <c r="A218" s="6"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="10"/>
-      <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
-      <c r="G218" s="8"/>
+    <row r="214" spans="1:9" ht="33">
+      <c r="A214" s="6">
+        <v>213</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C214" s="10">
+        <v>43175</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G214" s="8">
+        <f>YEAR(C214)</f>
+        <v>2018</v>
+      </c>
+      <c r="H214" s="8">
+        <f>MONTH(C214)</f>
+        <v>3</v>
+      </c>
+      <c r="I214" s="8">
+        <f>DAY(C214)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="33">
+      <c r="A215" s="6">
+        <v>214</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C215" s="10">
+        <v>43224</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G215" s="8">
+        <f>YEAR(C215)</f>
+        <v>2018</v>
+      </c>
+      <c r="H215" s="8">
+        <f>MONTH(C215)</f>
+        <v>5</v>
+      </c>
+      <c r="I215" s="8">
+        <f>DAY(C215)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="33">
+      <c r="A216" s="6">
+        <v>215</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C216" s="10">
+        <v>43202</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G216" s="8">
+        <f>YEAR(C216)</f>
+        <v>2018</v>
+      </c>
+      <c r="H216" s="8">
+        <f>MONTH(C216)</f>
+        <v>4</v>
+      </c>
+      <c r="I216" s="8">
+        <f>DAY(C216)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="33">
+      <c r="A217" s="6">
+        <v>216</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C217" s="10">
+        <v>43165</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G217" s="8">
+        <f>YEAR(C217)</f>
+        <v>2018</v>
+      </c>
+      <c r="H217" s="8">
+        <f>MONTH(C217)</f>
+        <v>3</v>
+      </c>
+      <c r="I217" s="8">
+        <f>DAY(C217)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="33">
+      <c r="A218" s="6">
+        <v>217</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C218" s="10">
+        <v>43184</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G218" s="8">
+        <f>YEAR(C218)</f>
+        <v>2018</v>
+      </c>
+      <c r="H218" s="8">
+        <f>MONTH(C218)</f>
+        <v>3</v>
+      </c>
+      <c r="I218" s="8">
+        <f>DAY(C218)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="33">
+      <c r="A219" s="6">
+        <v>218</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C219" s="10">
+        <v>43183</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G219" s="8">
+        <f>YEAR(C219)</f>
+        <v>2018</v>
+      </c>
+      <c r="H219" s="8">
+        <f>MONTH(C219)</f>
+        <v>3</v>
+      </c>
+      <c r="I219" s="8">
+        <f>DAY(C219)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" s="6"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="10"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="8"/>
+      <c r="H220" s="8"/>
+      <c r="I220" s="8"/>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" s="6"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="10"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="12"/>
+      <c r="H221" s="8"/>
+      <c r="I221" s="8"/>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" s="6"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="10"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="12"/>
+      <c r="H222" s="8"/>
+      <c r="I222" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
